--- a/environment/sensitivities/IEV - Exact 1-Year Shifting No Double-Deployment - Total Jobs.xlsx
+++ b/environment/sensitivities/IEV - Exact 1-Year Shifting No Double-Deployment - Total Jobs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\Documents\Work\Research\SAPIENS@SPA-QMUL\TuringProject\RangL-NetZeroTech@MSTeams\General\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6CED6F33-7ABB-485A-8CEA-5A7574984930}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{61524E1D-A99A-4BC6-8CC3-00657B6B2839}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="34560" windowHeight="15540" xr2:uid="{DE1E4F47-8EB6-42D7-BE65-FAE5BDAA7FEF}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="34560" windowHeight="15540" xr2:uid="{C4B03343-CE2F-413C-8C43-0A4581C0AA2D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -406,7 +406,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34B6C006-E292-4DDE-8172-F04F7621C7DB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33BFF095-B04B-4F28-B7EF-76F7672D6D6F}">
   <dimension ref="A1:AF4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -519,97 +519,97 @@
         <v>1</v>
       </c>
       <c r="B2" s="3">
-        <v>139965.85381615892</v>
+        <v>146313.3958052042</v>
       </c>
       <c r="C2" s="3">
-        <v>141522.68775841923</v>
+        <v>146827.02811716934</v>
       </c>
       <c r="D2" s="3">
-        <v>141227.28137044399</v>
+        <v>148035.20963514346</v>
       </c>
       <c r="E2" s="3">
-        <v>140933.59740789307</v>
+        <v>137225.56905248243</v>
       </c>
       <c r="F2" s="3">
-        <v>131888.97850114087</v>
+        <v>133646.7174088397</v>
       </c>
       <c r="G2" s="3">
-        <v>129060.68143971817</v>
+        <v>123471.41113176254</v>
       </c>
       <c r="H2" s="3">
-        <v>119799.6263292761</v>
+        <v>120942.39513674159</v>
       </c>
       <c r="I2" s="3">
-        <v>117131.03730387204</v>
+        <v>118215.58250770152</v>
       </c>
       <c r="J2" s="3">
-        <v>114743.52883815355</v>
+        <v>111468.60834011578</v>
       </c>
       <c r="K2" s="3">
-        <v>109761.9641412225</v>
+        <v>108513.26254136374</v>
       </c>
       <c r="L2" s="3">
-        <v>107433.5525131664</v>
+        <v>100070.40199206585</v>
       </c>
       <c r="M2" s="3">
-        <v>100135.56943080912</v>
+        <v>97200.514426351001</v>
       </c>
       <c r="N2" s="3">
-        <v>94838.355676270992</v>
+        <v>94828.349484629987</v>
       </c>
       <c r="O2" s="3">
-        <v>92798.528728255522</v>
+        <v>92790.163275456362</v>
       </c>
       <c r="P2" s="3">
-        <v>90979.17884847417</v>
+        <v>90981.073576947689</v>
       </c>
       <c r="Q2" s="3">
-        <v>89457.660229691974</v>
+        <v>89457.401044596205</v>
       </c>
       <c r="R2" s="3">
-        <v>88244.900668266433</v>
+        <v>88233.458522771427</v>
       </c>
       <c r="S2" s="3">
-        <v>87285.01068936626</v>
+        <v>87279.701108456065</v>
       </c>
       <c r="T2" s="3">
-        <v>87639.991824129509</v>
+        <v>87639.912345720775</v>
       </c>
       <c r="U2" s="3">
-        <v>88923.71649545015</v>
+        <v>88921.979271717006</v>
       </c>
       <c r="V2" s="3">
-        <v>91021.688364745089</v>
+        <v>91019.505562573118</v>
       </c>
       <c r="W2" s="3">
-        <v>92075.661210307007</v>
+        <v>92072.174717311747</v>
       </c>
       <c r="X2" s="3">
-        <v>93432.896310347074</v>
+        <v>93431.448913084227</v>
       </c>
       <c r="Y2" s="3">
-        <v>95110.180040372506</v>
+        <v>95105.947297685983</v>
       </c>
       <c r="Z2" s="3">
-        <v>97099.212063676445</v>
+        <v>97105.736026253639</v>
       </c>
       <c r="AA2" s="3">
-        <v>99442.487624557209</v>
+        <v>99442.396211846062</v>
       </c>
       <c r="AB2" s="3">
-        <v>102128.75059680187</v>
+        <v>102129.07877060529</v>
       </c>
       <c r="AC2" s="3">
-        <v>105184.91708478209</v>
+        <v>105180.53591200689</v>
       </c>
       <c r="AD2" s="3">
-        <v>105122.6467022463</v>
+        <v>105109.33299626803</v>
       </c>
       <c r="AE2" s="3">
-        <v>106238.77827256775</v>
+        <v>106224.67976913461</v>
       </c>
       <c r="AF2" s="3">
-        <v>90180.129811064806</v>
+        <v>90162.96309238211</v>
       </c>
     </row>
     <row r="3" spans="1:32" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
@@ -617,97 +617,97 @@
         <v>2</v>
       </c>
       <c r="B3" s="3">
-        <v>139963.05592280804</v>
+        <v>146313.39580520417</v>
       </c>
       <c r="C3" s="3">
-        <v>141522.68775841923</v>
+        <v>146827.02811716936</v>
       </c>
       <c r="D3" s="3">
-        <v>141227.28137044399</v>
+        <v>148035.20963514346</v>
       </c>
       <c r="E3" s="3">
-        <v>140933.59740789307</v>
+        <v>137225.56905248243</v>
       </c>
       <c r="F3" s="3">
-        <v>131998.65179025973</v>
+        <v>133742.50143629144</v>
       </c>
       <c r="G3" s="3">
-        <v>129197.919673161</v>
+        <v>123600.39784684683</v>
       </c>
       <c r="H3" s="3">
-        <v>120151.22599145123</v>
+        <v>121286.64585898256</v>
       </c>
       <c r="I3" s="3">
-        <v>117740.83838601813</v>
+        <v>118824.95991016011</v>
       </c>
       <c r="J3" s="3">
-        <v>115663.72878803306</v>
+        <v>114184.01144804618</v>
       </c>
       <c r="K3" s="3">
-        <v>114829.22027531973</v>
+        <v>114303.58014003787</v>
       </c>
       <c r="L3" s="3">
-        <v>116481.58151843704</v>
+        <v>109817.17055619013</v>
       </c>
       <c r="M3" s="3">
-        <v>114280.82558767477</v>
+        <v>108323.3258593293</v>
       </c>
       <c r="N3" s="3">
-        <v>107131.55005108268</v>
+        <v>107128.31842422836</v>
       </c>
       <c r="O3" s="3">
-        <v>106218.49427332805</v>
+        <v>106215.50069779737</v>
       </c>
       <c r="P3" s="3">
-        <v>105831.7657455765</v>
+        <v>105824.1190411592</v>
       </c>
       <c r="Q3" s="3">
-        <v>105906.91799077747</v>
+        <v>105897.06283442685</v>
       </c>
       <c r="R3" s="3">
-        <v>106362.50547801942</v>
+        <v>106353.04615057832</v>
       </c>
       <c r="S3" s="3">
-        <v>107169.74322171614</v>
+        <v>107163.05422865818</v>
       </c>
       <c r="T3" s="3">
-        <v>109387.90794063645</v>
+        <v>109371.72724991434</v>
       </c>
       <c r="U3" s="3">
-        <v>112601.09383265823</v>
+        <v>112591.3240874981</v>
       </c>
       <c r="V3" s="3">
-        <v>116724.03433642921</v>
+        <v>116716.32678416962</v>
       </c>
       <c r="W3" s="3">
-        <v>119894.86452606789</v>
+        <v>119888.75207185745</v>
       </c>
       <c r="X3" s="3">
-        <v>123470.42622756489</v>
+        <v>123461.65845937163</v>
       </c>
       <c r="Y3" s="3">
-        <v>127449.85542918238</v>
+        <v>127445.60792789987</v>
       </c>
       <c r="Z3" s="3">
-        <v>131849.72277910192</v>
+        <v>131849.30246469573</v>
       </c>
       <c r="AA3" s="3">
-        <v>136698.44473518271</v>
+        <v>136683.63772304164</v>
       </c>
       <c r="AB3" s="3">
-        <v>141960.76102150741</v>
+        <v>141957.97004292294</v>
       </c>
       <c r="AC3" s="3">
-        <v>147701.5187483496</v>
+        <v>147681.76018762818</v>
       </c>
       <c r="AD3" s="3">
-        <v>142049.5471667244</v>
+        <v>142044.15440705433</v>
       </c>
       <c r="AE3" s="3">
-        <v>139942.820004473</v>
+        <v>139943.08492937451</v>
       </c>
       <c r="AF3" s="3">
-        <v>101715.54313903274</v>
+        <v>101697.54816029593</v>
       </c>
     </row>
     <row r="4" spans="1:32" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
@@ -715,97 +715,97 @@
         <v>3</v>
       </c>
       <c r="B4" s="3">
-        <v>139963.05592280804</v>
+        <v>146313.39580520417</v>
       </c>
       <c r="C4" s="3">
-        <v>142240.25604310856</v>
+        <v>146827.02811716936</v>
       </c>
       <c r="D4" s="3">
-        <v>141662.60221990099</v>
+        <v>148425.74962877488</v>
       </c>
       <c r="E4" s="3">
-        <v>141953.79359196918</v>
+        <v>138201.04137950164</v>
       </c>
       <c r="F4" s="3">
-        <v>133618.53213542682</v>
+        <v>135339.3915047746</v>
       </c>
       <c r="G4" s="3">
-        <v>130900.49485130009</v>
+        <v>125276.85616869353</v>
       </c>
       <c r="H4" s="3">
-        <v>122363.89926162835</v>
+        <v>123475.44645062975</v>
       </c>
       <c r="I4" s="3">
-        <v>120591.1709267539</v>
+        <v>121646.6707742135</v>
       </c>
       <c r="J4" s="3">
-        <v>119242.95108618365</v>
+        <v>119194.73116193741</v>
       </c>
       <c r="K4" s="3">
-        <v>122358.60748860342</v>
+        <v>122408.71465070732</v>
       </c>
       <c r="L4" s="3">
-        <v>127718.43195436068</v>
+        <v>121600.24121365207</v>
       </c>
       <c r="M4" s="3">
-        <v>130534.76076427432</v>
+        <v>122111.70953142329</v>
       </c>
       <c r="N4" s="3">
-        <v>123127.69311546491</v>
+        <v>123098.77111106152</v>
       </c>
       <c r="O4" s="3">
-        <v>124568.23452289197</v>
+        <v>124549.79040905094</v>
       </c>
       <c r="P4" s="3">
-        <v>126486.47161632148</v>
+        <v>126471.68999137332</v>
       </c>
       <c r="Q4" s="3">
-        <v>128888.19688272863</v>
+        <v>128874.40585720228</v>
       </c>
       <c r="R4" s="3">
-        <v>131839.41371922547</v>
+        <v>131820.27151360729</v>
       </c>
       <c r="S4" s="3">
-        <v>135300.94957001525</v>
+        <v>135290.58393349499</v>
       </c>
       <c r="T4" s="3">
-        <v>140359.54930480907</v>
+        <v>140340.04897952243</v>
       </c>
       <c r="U4" s="3">
-        <v>146601.42888861673</v>
+        <v>146592.85787902056</v>
       </c>
       <c r="V4" s="3">
-        <v>153970.44921122893</v>
+        <v>153961.40670160003</v>
       </c>
       <c r="W4" s="3">
-        <v>160615.27808853085</v>
+        <v>160599.56091487332</v>
       </c>
       <c r="X4" s="3">
-        <v>167895.55887652296</v>
+        <v>167880.70752498737</v>
       </c>
       <c r="Y4" s="3">
-        <v>175849.86180951787</v>
+        <v>175831.87187214554</v>
       </c>
       <c r="Z4" s="3">
-        <v>184498.25438658206</v>
+        <v>184481.53452999424</v>
       </c>
       <c r="AA4" s="3">
-        <v>193870.57014501974</v>
+        <v>193857.56976193868</v>
       </c>
       <c r="AB4" s="3">
-        <v>203997.2256935256</v>
+        <v>203986.0562376813</v>
       </c>
       <c r="AC4" s="3">
-        <v>214904.00278798421</v>
+        <v>214889.77639478218</v>
       </c>
       <c r="AD4" s="3">
-        <v>201597.55974935205</v>
+        <v>201580.05265164858</v>
       </c>
       <c r="AE4" s="3">
-        <v>195132.54817686777</v>
+        <v>195111.73962818645</v>
       </c>
       <c r="AF4" s="3">
-        <v>120853.3987949713</v>
+        <v>120836.92506986743</v>
       </c>
     </row>
   </sheetData>
